--- a/test/false_positive.xlsx
+++ b/test/false_positive.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C62834-ACC1-4012-8C42-DC4EFA6E41DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8B333B-E668-47D7-8EB6-89FD21BED7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Phishing Email</t>
   </si>
@@ -49,6 +49,14 @@
 Subject:	List of Accomplishments-immediate action required
 I have receive a top priority request from Louise Kitchen to obtain the accomplishments for the Commercial Directors in ENA. If you have entered this information into the PEP system, you will not be required to submit additional information. If you have not entered this information into the performance management system, please prepare a one page list of your achievements for this review period and send to me by noon July 2, 2001.  You can send your accomplishments to me via email (select confidential under options) or in a confidential envelope by runner.   Your prompt attention is greatly appreciated.  Please let me know if I can offer any assistance.  
 </t>
+  </si>
+  <si>
+    <t>It appears that the student may have wrongly identified this legitimate email as phishing due to the following reasons:
+1. **Urgency and Immediate Action Required**: The student may have flagged the email as phishing because it requests immediate action. Phishing emails often use urgent language to pressure recipients into clicking on malicious links or providing personal information. However, in this case, the urgency is legitimate as the email is requesting important work-related information to be submitted by a specific deadline.
+2. **Unfamiliar Names in CC**: The student may have noticed unfamiliar names in the CC field of the email and considered it a phishing indicator. Phishing emails often include large lists of recipients in the CC field to create a sense of panic or confusion. However, in this scenario, the email is a legitimate communication within a corporate setting involving multiple colleagues being informed about a task related to their work.
+3. **Request for Personal Information**: Another reason for misidentifying this email could be the request for personal achievements or accomplishments. Phishing emails often ask for personal information such as passwords, credit card details, or social security numbers. In this case, the email is requesting work-related achievements for a performance review, which is a standard business practice.
+4. **Suspicious Attachments or Links**: Phishing emails often contain attachments or links that, when clicked, lead to malicious websites or downloads. This email, however, does not contain any such elements that could lead to a phishing attempt.
+In reality, the email is a legitimate internal communication within the ENRON company, where an employee is requesting accomplishment details for a review. The email addresses, sender name, company domain, and content all align with what would be expected in a professional setting. It's crucial for the student to understand the context of the email, the relationships between the sender and recipient, and the nature of the request before classifying an email as phishing.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Alport, Kysa" &lt;Kysa.Alport@ENRON.com&gt;
@@ -93,6 +101,15 @@
 </t>
   </si>
   <si>
+    <t>The student may have wrongly identified this email as phishing due to the following reasons:
+1. **Unsolicited Nature**: Phishing emails often appear out of the blue and may contain suspicious content. In this case, the student might have mistaken this email for phishing as it is related to deals and volumes without prior context.
+2. **Complex Data**: The email contains a lot of technical data related to deals and volumes, which can sometimes mimic the obfuscation techniques used by phishing emails to confuse recipients. The overwhelming data might have led the student to believe it was an attempt to deceive them.
+3. **Unfamiliar Terminology**: Phishing emails often use jargon or unfamiliar terminology to confuse recipients. The student might have encountered terms like "EOL Deals," "EnPower Deals," "MWH," and "Desk," which could seem suspicious without proper context.
+4. **Multiple Recipients**: The email is sent to multiple recipients, a tactic often used in phishing emails to target a wide audience. The student might have associated this with phishing campaigns aiming to reach a broader group for malicious purposes.
+5. **Hyperlinks and Attachments**: Phishing emails commonly contain malicious links or attachments. Even though the email provided does not include these elements, the student might have been expecting them and erroneously labeled it as phishing.
+In reality, this email appears to be a legitimate internal communication within a company, discussing energy deals and volumes. The sender and recipients are all from the same domain (ENRON.com), which adds to the legitimacy of the email. The technical nature of the content may have sparked confusion, but it's just a routine business update rather than a phishing attempt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sender: "Gimble, Mathew" &lt;Mathew.Gimble@ENRON.com&gt;
 Receiver: "Weldon, V. Charles" &lt;V.Charles.Weldon@ENRON.com&gt;, "Breese, Mark" &lt;Mark.Breese@ENRON.com&gt;
 Date: Fri, 29 Jun 2001 14:39:54 -0500
@@ -103,6 +120,14 @@
 Thanks again for your help and if I miss you, have a great Fourth,
 Mathew
 </t>
+  </si>
+  <si>
+    <t>The student may have wrongly identified this legitimate email as phishing due to a few reasons:
+1. Urgency: Phishing emails often create a sense of urgency to prompt the recipient to act quickly without thinking. In this email, the sender mentions that FMPA is ready to bill and has questions. However, the urgency here is related to a regular business process rather than a malicious attempt to pressure the recipients.
+2. Request for Information: Phishing emails often try to obtain sensitive information from the recipient. In this email, the sender is asking for information on where to send the invoice and what to reference. While this may seem like a red flag, in the context of a business email regarding payment processes, it is a legitimate request for necessary information.
+3. Unfamiliar Email Address: The student may have flagged the email as phishing because the email is coming from an unfamiliar email address (Steve McElhaney at FMPA). However, in business communications, it is common to receive emails from colleagues or contacts with whom you may not be directly familiar.
+4. Personal Information: The mention of the sender's vacation plans and availability on the cell phone could also be a point of concern for the student. Phishing emails sometimes include personal details to establish a false sense of trust. However, in this case, the sender is simply informing the recipients of his availability, which is not uncommon in professional emails.
+In reality, this email is a legitimate communication between colleagues discussing a business matter related to an oil invoice. The email addresses are from valid domains, and the content of the email is relevant to the recipients' work responsibilities at Enron. It's important for the student to consider the context, content, and the sender's details more closely before labeling an email as phishing.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Boyt, Eric" &lt;Eric.Boyt@ENRON.com&gt;
@@ -116,6 +141,14 @@
 Eric
 &lt;Embedded Picture (Metafile)&gt;&lt;/DIV&gt;
 </t>
+  </si>
+  <si>
+    <t>At first glance, I can see why the student may have mistakenly identified this email as a phishing attempt. There are several characteristics in the email that could be misunderstood as traits of a phishing email. I will walk you through these features:
+1. **Sender's Name and Email Address**: The email is supposedly sent by "Eric Boyt" from Eric.Boyt@ENRON.com. The student may have been wary of the email due to the unfamiliar name and the fact that the email is from a corporate domain. However, in reality, it is common for emails to be sent internally within a company from individuals the recipient may not know personally.
+2. **Subject Line**: The subject line "PanNat Value - Confidential and Proprietary" may raise suspicion. Phishing emails often use urgent or secretive language to create a sense of importance and urgency. In this case, the subject line is related to business matters and confidentiality, which is typical of internal corporate communications.
+3. **Embedded Picture**: The presence of an embedded picture (Metafile) in the email could trigger caution as phishing emails sometimes include images or attachments to deceive recipients. However, in this case, it is reasonable to include a graph, chart, or visual aid in an email discussing deal values and estimates.
+4. **Professional Tone**: The email exhibits a professional tone and uses standard business language. Phishing emails often contain spelling and grammatical errors, urgency, or threats to manipulate recipients. This email, on the other hand, is concise, clear, and maintains a professional demeanor.
+Overall, the email provided seems to be a legitimate internal communication regarding business matters between two individuals at ENRON. The content of the email is related to a specific deal, includes requested information, and invites further communication if needed. It is essential to educate the student on the differences between common elements of phishing emails and legitimate corporate communications to avoid misidentifications in the future.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Thorne, Judy" &lt;Judy.Thorne@ENRON.com&gt;
@@ -165,6 +198,15 @@
 </t>
   </si>
   <si>
+    <t>The email in question is not a phishing email; it is a legitimate email exchange between employees of Enron Corporation and El Paso Merchant Energy regarding trading agreements and company information. The student may have mistakenly identified it as a phishing email due to the following reasons:
+1. **Unfamiliar Sender**: The email may have been flagged as suspicious because the sender's name, Judy Thorne, could potentially be spoofed to appear legitimate. However, in this case, Judy Thorne is a known employee at Enron, and the email address provided (Judy.Thorne@ENRON.com) is from the official Enron domain.
+2. **Attachments**: Phishing emails often contain malicious attachments or links. The inclusion of attachments like "&lt;&lt;Bank Account Info.doc&gt;&gt;" and "multi5-25-01.doc" might have made the student wary. However, in a legitimate business context, it is common to exchange documents and files related to company operations.
+3. **Urgency or Threats**: Phishing emails often create a sense of urgency or use threatening language to prompt immediate action. In this email, the tone is professional and focused on exchanging necessary information for business purposes without any threatening language.
+4. **Email Content**: Mention of trading contracts and company information may have triggered a false positive for phishing. However, such communications are standard in the corporate world, especially between companies engaged in agreements or partnerships.
+5. **Confidentiality Notice**: The inclusion of a confidentiality notice at the end of the email may have been misinterpreted as a red flag. However, such notices are common in business emails to protect sensitive information and are not indicative of phishing activity.
+In conclusion, the student likely misinterpreted this legitimate email as phishing due to the presence of attachments, a confidentiality notice, and possibly the technical nature of the discussion. It's essential to consider the context of the email, the sender's identity, and the content before determining its legitimacy. In this case, the email is a standard business communication between professionals in the energy trading sector.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sender: EDIS Email Service &lt;edismail@incident.com&gt;
 Receiver: EDIS-by-Email@incident.com
 Date: Tue, 03 Jul 2001 11:31:17 -0700
@@ -187,6 +229,19 @@
 </t>
   </si>
   <si>
+    <t>At first glance, I can understand why the student may have mistakenly identified this email as a phishing attempt due to a few reasons:
+1. **Unsolicited urgency**: The subject line mentioning an "Electrical Emergency" and labeling the email as "[Urgent: Statewide]" might make the student think it is a phishing email trying to create a sense of urgency to prompt a quick response.
+2. **Sender's email address**: The email is sent from "edismail@incident.com," and the receiver's email address is "EDIS-by-Email@incident.com". The student might find this suspicious as the sender and receiver emails are really similar, which is a common tactic used by phishers to trick recipients.
+3. **Request for information**: The email includes a contact email address for more information but this email address is not from the official CAISO domain but from "caiso.com." This discrepancy might raise a red flag for the student.
+4. **Subscription update link**: The email includes a link to update or terminate the subscription to the email service. Phishing emails often include malicious links, so the presence of a link in the email might trigger caution in the student.
+However, upon closer inspection, this email is actually legitimate. Here's why:
+1. **Sender legitimacy**: The email is sent from "EDIS Email Service" which is a recognizable and legitimate service associated with the Governor's Office of Emergency Services in the State of California.
+2. **Content consistency**: The content of the email, declaring an electrical emergency and providing information on how to get more details, is consistent with what one would expect from an emergency service communication.
+3. **Official contact information**: The email provides a legitimate contact email address for more information, albeit from a different domain, which is reasonable for a government service as they may use separate domains for different functions.
+4. **Subscription management**: Legitimate services often provide options to manage subscriptions. The link provided in the email directs to a webpage on the official domain "incident.com," which is a good practice for a legitimate service.
+In conclusion, while certain elements of the email might resemble traits of a phishing attempt, the content and context of the email, as well as the legitimacy of the sender, indicate that it is indeed a legitimate and safe email, not a phishing attempt.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sender: "Villarreal, Lillian" &lt;Lillian.Villarreal@ENRON.com&gt;
 Receiver: "Alvarez, Gloria" &lt;Gloria.Alvarez@ENRON.com&gt;, "Arguijo, Cheryl" &lt;Cheryl.Arguijo@ENRON.com&gt;, "Armstrong, Kristy" &lt;Kristy.Armstrong@ENRON.com&gt;, "Avery, LaDonna" &lt;LaDonna.Avery@ENRON.com&gt;, "Becker, Lorraine" &lt;Lorraine.Becker@ENRON.com&gt;, "Blake, Debra" &lt;Debra.Blake@ENRON.com&gt;, "Boatright, Lissa" &lt;Lissa.Boatright@ENRON.com&gt;, "Bohanan, Stacie" &lt;Stacie.Bohanan@ENRON.com&gt;, "Buenrostro, Felicia" &lt;Felicia.Buenrostro@ENRON.com&gt;, "Campbell, Lesli" &lt;Lesli.Campbell@ENRON.com&gt;, "Clements, Tina" &lt;Tina.Clements@ENRON.com&gt;, "Cobb, Shannon" &lt;Shannon.Cobb@ENRON.com&gt;, "Collins, Angie" &lt;Angie.Collins@ENRON.com&gt;, "Crowell, Rachel" &lt;Rachel.Crowell@ENRON.com&gt;, "Davis, Geneva" &lt;Geneva.Davis@ENRON.com&gt;, "Diebner, Bradley" &lt;Bradley.Diebner@ENRON.com&gt;, "Dutton, Cassandra S." &lt;Cassandra.S.Dutton@ENRON.com&gt;, "Ford, Rebecca" &lt;Rebecca.Ford@ENRON.com&gt;, "Garza, Sarita" &lt;Sarita.Garza@ENRON.com&gt;, "Guerrero, Alisha" &lt;Alisha.Guerrero@ENRON.com&gt;, "Hernandez, Bert" &lt;Albert.Hernandez@ENRON.com&gt;, "Hyatt, Kevin" &lt;Kevin.Hyatt@ENRON.com&gt;, "Johnson, Debra S." &lt;Debra.S.Johnson@ENRON.com&gt;, "Johnson, Shelley" &lt;Shelley.Johnson@ENRON.com&gt;, "Kitchen, Daryl" &lt;Daryl.Kitchen@ENRON.com&gt;, "Lancaster, Ruth A." &lt;Ruth.A.Lancaster@ENRON.com&gt;, "Lee, Dennis" &lt;Dennis.Lee@ENRON.com&gt;, "Lew, Elsie" &lt;Elsie.Lew@ENRON.com&gt;, "Mann, Ruth" &lt;Ruth.Mann@ENRON.com&gt;, "Margoliner, George" &lt;George.Margoliner@ENRON.com&gt;, "McClure, Zakiyyah" &lt;Zakiyyah.McClure@ENRON.com&gt;, "McOmber, Teresa" &lt;Teresa.McOmber@ENRON.com&gt;, "Moore, Kevin G." &lt;Kevin.G.Moore@ENRON.com&gt;, "Nelson, Emitra" &lt;Emitra.Nelson@ENRON.com&gt;, "Resendiz, Elizabeth" &lt;Elizabeth.Resendiz@ENRON.com&gt;, "Roberts, Chaun" &lt;Chaun.Roberts@ENRON.com&gt;, "Robichaux, Michelle" &lt;Michelle.Robichaux@ENRON.com&gt;, "Rodriguez, Ramona" &lt;Ramona.Rodriguez@ENRON.com&gt;, "Rush, Pamela" &lt;Pamela.Rush@ENRON.com&gt;, "Sek, Julie" &lt;Julie.Sek@ENRON.com&gt;, "Stringfellow, Sharon" &lt;Sharon.Stringfellow@ENRON.com&gt;, "Tijerina, Rosalinda" &lt;Rosalinda.Tijerina@ENRON.com&gt;, "Tippery, Lynn" &lt;Lynn.Tippery@ENRON.com&gt;, "Troupe, Eboni" &lt;Eboni.Troupe@ENRON.com&gt;, "Villanueva, Chantelle" &lt;Chantelle.Villanueva@ENRON.com&gt;, "Villarreal, Lillian" &lt;Lillian.Villarreal@ENRON.com&gt;, "Williams, Tammie" &lt;Tammie.Williams@ENRON.com&gt;
 Date: Mon, 02 Jul 2001 14:43:47 -0500
@@ -202,6 +257,15 @@
 	III.	Review Timeline &amp; To Do's for 2001 Enron Kids Program
 	IV.	Review &amp; Revise Enron Kids Forms (if you have any of the forms we used last year stored in your directory of 	files, please forward to Geneva Davis or myself so we can keep a master file of all forms) 
 </t>
+  </si>
+  <si>
+    <t>The student may have wrongly identified this email as phishing due to several reasons commonly associated with phishing emails. Here are some traits that may have led to the erroneous identification:
+1. **Sender's Name**: The sender's name "Lillian Villarreal" may seem unfamiliar or not well-known to the student, which can raise suspicion. However, in a corporate environment like Enron, it's common to receive emails from colleagues or team members whose names may not be familiar to everyone, especially in a large organization with numerous employees.
+2. **Bulk Recipients**: The email is sent to a long list of recipients, which is a common tactic used by phishing emails to target a wide audience. However, in a legitimate corporate setting, group emails involving many colleagues or team members for meetings or updates are common practice.
+3. **Subject Line**: The subject line "Enron Kids Meeting" may seem vague or unusual, which could raise suspicion. Phishing emails often use generic subject lines to grab attention. However, in a work environment, emails related to company programs, meetings, or events may indeed have specific or unusual subject lines.
+4. **Urgency**: Phishing emails often create a sense of urgency to prompt immediate action. In this case, there is a meeting scheduled for July 19, but there is no urgency or pressure for any immediate action that is characteristic of phishing emails.
+5. **Meeting Agenda**: The detailed meeting agenda in the email may have appeared organized and professional, leading the student to think it is a well-crafted phishing email. However, in legitimate emails from a workplace, especially regarding meetings or events, providing a structured agenda is a common practice to inform recipients about the purpose and content of the meeting.
+In conclusion, the email is a legitimate internal communication regarding an Enron Kids meeting, common in a corporate environment. Despite displaying some characteristics that align with phishing emails, such as an unfamiliar sender and bulk recipients, the content and context of the email indicate its authenticity and safety. It's crucial for individuals, especially new students, to carefully analyze the content and context of an email before labeling it as phishing.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Kozadinos, Tracey" &lt;Tracey.Florio-Kozadinos@ENRON.com&gt;
@@ -226,6 +290,14 @@
 Subject:	FW: Surprise!!
 Please send me your current location AND extension so you may receive your SURPRISE!
 </t>
+  </si>
+  <si>
+    <t>The student may have wrongly identified this email as a phishing email due to a few reasons:
+1. **Unsolicited email:** The email is a response to an earlier email from Shawna Johnson requesting their current location and extension. Phishing emails often do not have a prior context or interaction, making them unsolicited. In this case, the email is part of an ongoing email chain among colleagues at Enron.
+2. **Suspicious content:** The subject line "RE: Surprise!!" could seem suspicious to the student as it implies a surprise gift or offer, which is a common tactic used by phishers to lure recipients. However, in the context of this email chain, it is a legitimate response to an earlier message.
+3. **Links in the email:** The email contains links to websites (http://home.enron.com/sites/ and http://community.zuniversity.com/z/EnronCougars). Phishing emails often contain malicious links that lead to fake websites designed to steal personal information. In this case, the links lead to legitimate Enron websites and do not pose any threat.
+4. **Urgency or threatening language:** Phishing emails often use urgent language or threats to make recipients act quickly without thinking. In this email, there is no sense of urgency or threat, but rather a friendly update on the sender's new position.
+Overall, the email is actually a legitimate communication within the Enron company network, providing updated contact information due to a job position change. The information shared in the email is relevant to the recipient, and the email addresses, sender, and company domain are all genuine, indicating that it is safe and not a phishing attempt.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Rorschach, Reagan" &lt;Reagan.Rorschach@ENRON.com&gt;
@@ -262,6 +334,15 @@
  &lt;&lt;Enron NA Energy Management Agreement version 1.doc&gt;&gt; 
  - Enron NA Energy Management Agreement version 1.doc 
 </t>
+  </si>
+  <si>
+    <t>While the student may have thought this email was a phishing attempt, it is actually a legitimate email for several reasons:
+1. **Email Addresses**: The email comes from legitimate email addresses ending in "@enron.com" and "@intergen.com", which are recognizable domains associated with Enron Corporation and Intergen respectively. Phishing emails often use spoofed or slightly altered email addresses to mimic legitimate ones.
+2. **Internal Communication**: The email contains a chain of communication between known individuals from Enron, discussing a document related to the company's operations. Phishing emails typically do not contain detailed internal conversations that reference specific projects or documents.
+3. **Professional Communication**: The language used in the email is professional and related to business matters, such as sending a document for review by the legal team. Phishing emails often use urgent or threatening language to prompt immediate action or manipulate the recipient.
+4. **Attachment**: The email includes an attachment named "Enron NA Energy Management Agreement version 1.doc", which is a common practice in business communication for sharing documents. Phishing emails may use attachments to deliver malware or prompt users to click on malicious links.
+5. **Contact Information**: The email includes contact information for Reagan Rorschach at Enron, providing a phone number and address for verification. Phishing emails rarely include such detailed and verifiable contact information.
+In conclusion, the student may have mistakenly identified this email as phishing due to the presence of an attachment and a chain of forwarded messages, which are common tactics used in phishing emails. However, upon closer examination, the email displays multiple characteristics of a legitimate and safe internal communication within a company.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: "Williams, Robert C." &lt;Robert.C.Williams@ENRON.com&gt;
@@ -314,6 +395,15 @@
  - GAO Letter 9-22-00.pdf 
 &lt;Embedded Picture (Device Independent Bitmap)&gt;&lt;/DIV&gt;
 </t>
+  </si>
+  <si>
+    <t>The student may have wrongly identified this email as phishing due to several reasons:
+1. **Urgency**: The email mentions a deadline for providing information to the GAO by a specific date, which could trigger a sense of urgency that is often associated with phishing emails. However, in this case, the urgency is legitimate as it pertains to a formal request from a government agency which requires timely responses.
+2. **Request for Confidential Information**: The email discusses a request for confidential information, which is a common tactic used in phishing emails to trick recipients into sharing sensitive data. However, in this email, the request is made in a professional and formal tone, and it specifically mentions legal processes for handling confidential materials.
+3. **Attachments**: The presence of attachments (GAO Data Request and GAO Letter) in the email may have raised suspicion since phishing emails often contain malicious attachments. In this case, the attachments are legitimate documents related to the request for information and not harmful files.
+4. **Sender Email Address**: The email is sent from a legitimate and verified email address associated with Enron, which is a recognizable and reputable company. Phishing emails often use spoofed or fake email addresses to appear as though they are coming from a trusted source.
+5. **Recipient List**: The long list of recipients in the email may have also seemed unusual to the student. Phishing emails sometimes contain a large number of recipients in an attempt to appear more legitimate. However, in this case, the email is addressing multiple participants in the California Power Exchange, which is reasonable given the nature of the request.
+In conclusion, while the email exhibits some characteristics that are often found in phishing emails, such as urgency, requests for confidential information, attachments, and a long recipient list, a closer examination reveals that it is a legitimate communication regarding a formal request from a government agency. The student's misidentification may stem from an overgeneralization of phishing email traits without considering the context and details of the message.</t>
   </si>
   <si>
     <t xml:space="preserve">Sender: KTracey111@aol.com
@@ -374,6 +464,19 @@
 appears.
 </t>
   </si>
+  <si>
+    <t>The student may have wrongly identified this email as phishing because of the following features typically associated with phishing emails:
+1. **Multiple Sender Email Addresses**: The email contains multiple sender email addresses which could appear suspicious to the student. Phishing emails often use multiple sender addresses to trick recipients into believing the email is coming from a legitimate source. In this case, the email includes addresses from AOL and patriotichouse.com.
+2. **Unsolicited Message**: The email contains a story about an Irishman's medical condition, which may seem unusual for a typical email communication. Phishing emails often contain strange or unrelated content to confuse recipients.
+3. **Links and Promotions**: The email includes a link to a website encouraging recipients to participate in a drawing, which could be perceived as a phishing attempt to lure recipients to click on malicious links. Phishing emails often contain links to fake websites to steal personal information.
+4. **Urgency and Emotionally Manipulative Content**: The story in the email plays on emotions by narrating a sad situation with a humorous twist. Phishing emails often use urgency and emotional manipulation to prompt recipients to take immediate action without thinking.
+However, the email is actually legitimate and safe for the following reasons:
+1. **Consistent Branding**: The email maintains a consistent branding with references to a patriotichouse.com website and contact information. Legitimate companies usually include such details for authenticity.
+2. **No Requests for Personal Information**: The email does not ask for personal information like passwords, usernames, or financial details, which are common in phishing emails.
+3. **No Sense of Urgency**: While the content may be unusual, there is no sense of urgency or requests for immediate action, which is often present in phishing emails to pressure recipients into responding quickly.
+4. **Includes Contact Information**: The email provides contact information and a physical address, which adds to its credibility as a genuine communication.
+In summary, the student may have misidentified this email as phishing due to the presence of multiple sender email addresses, unusual content, and links to external websites. However, the email is legitimate and safe as it does not contain any malicious intent or requests for sensitive information.</t>
+  </si>
 </sst>
 </file>
 
@@ -408,8 +511,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,72 +796,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="255.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
